--- a/data/trans_orig/SALUD_MEN_PER-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MEN_PER-Clase-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud mental percibida en Andalucia</t>
+          <t>Salud mental percibida en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SALUD_MEN_PER-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MEN_PER-Clase-trans_orig.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1457</t>
+          <t>1468</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11662</t>
+          <t>13117</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10012</t>
+          <t>10365</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3848</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>17671</t>
+          <t>17948</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17863</t>
+          <t>17192</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42954</t>
+          <t>41717</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10243</t>
+          <t>10411</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22676</t>
+          <t>22123</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>30791</t>
+          <t>31366</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>59697</t>
+          <t>57909</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>8,7%</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>142806</t>
+          <t>143066</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>182709</t>
+          <t>183166</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>49,83%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>103255</t>
+          <t>102739</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>131380</t>
+          <t>131024</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>34,54%</t>
+          <t>34,37%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
+          <t>43,84%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>253585</t>
+          <t>253798</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>303975</t>
+          <t>300946</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>38,1%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>45,67%</t>
+          <t>45,22%</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1077,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>103617</t>
+          <t>102721</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>139691</t>
+          <t>141692</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,1%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>100519</t>
+          <t>100748</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>129589</t>
+          <t>130580</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>43,69%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>213209</t>
+          <t>213791</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>260234</t>
+          <t>261565</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1162,12 +1162,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>32,12%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>39,1%</t>
+          <t>39,3%</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1190,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>38897</t>
+          <t>39311</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>70779</t>
+          <t>70529</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,12 +1225,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>37691</t>
+          <t>38069</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>60020</t>
+          <t>58976</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>81519</t>
+          <t>83573</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>119457</t>
+          <t>123206</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>18,51%</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4267</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3350</t>
+          <t>3618</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>393</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>6114</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1533,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8406</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24189</t>
+          <t>24020</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17241</t>
+          <t>17917</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36277</t>
+          <t>35814</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>29366</t>
+          <t>29052</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>52581</t>
+          <t>53311</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>9,13%</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>124670</t>
+          <t>127003</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>162622</t>
+          <t>162716</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>38,47%</t>
+          <t>39,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>50,18%</t>
+          <t>50,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>104544</t>
+          <t>102645</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>132947</t>
+          <t>131124</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1696,12 +1696,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>39,47%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>51,12%</t>
+          <t>50,42%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>239097</t>
+          <t>241085</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>285734</t>
+          <t>286448</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>40,93%</t>
+          <t>41,27%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>48,92%</t>
+          <t>49,04%</t>
         </is>
       </c>
     </row>
@@ -1759,12 +1759,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90204</t>
+          <t>90530</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>127703</t>
+          <t>127971</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>74477</t>
+          <t>74945</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>100598</t>
+          <t>102263</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>38,68%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>174461</t>
+          <t>174125</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>218040</t>
+          <t>219515</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>29,81%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>37,58%</t>
         </is>
       </c>
     </row>
@@ -1872,12 +1872,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>41700</t>
+          <t>39300</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>73851</t>
+          <t>72197</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>20979</t>
+          <t>20778</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>39920</t>
+          <t>38610</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>67728</t>
+          <t>66052</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>104936</t>
+          <t>104231</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1957,12 +1957,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>17,84%</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6109</t>
+          <t>6138</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2764</t>
+          <t>3263</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>6220</t>
+          <t>5267</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,92%</t>
         </is>
       </c>
     </row>
@@ -2215,12 +2215,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3347</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>41049</t>
+          <t>42338</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2230,12 +2230,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6557</t>
+          <t>6884</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16874</t>
+          <t>16862</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>9017</t>
+          <t>8608</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>56992</t>
+          <t>54987</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2300,12 +2300,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,6%</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>226173</t>
+          <t>224728</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>445576</t>
+          <t>435720</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>47,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>91,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,12 +2363,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>39157</t>
+          <t>37683</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>55360</t>
+          <t>55082</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>38,62%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>56,74%</t>
+          <t>56,46%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>270956</t>
+          <t>274861</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>520018</t>
+          <t>510755</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>47,29%</t>
+          <t>47,97%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>89,14%</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>19864</t>
+          <t>22051</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>158566</t>
+          <t>157450</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>33,12%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>20818</t>
+          <t>19685</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>35311</t>
+          <t>35554</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>36,19%</t>
+          <t>36,44%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>33249</t>
+          <t>38870</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>183851</t>
+          <t>180361</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>31,48%</t>
         </is>
       </c>
     </row>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5464</t>
+          <t>7099</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>58745</t>
+          <t>59813</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2569,12 +2569,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5799</t>
+          <t>6116</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>19863</t>
+          <t>20088</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2604,12 +2604,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>8969</t>
+          <t>13128</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>71033</t>
+          <t>70075</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>12,23%</t>
         </is>
       </c>
     </row>
@@ -2784,12 +2784,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2157</t>
+          <t>2377</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11298</t>
+          <t>12206</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>5537</t>
+          <t>6024</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2854,12 +2854,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>2989</t>
+          <t>3216</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>14266</t>
+          <t>14656</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2869,12 +2869,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -2897,12 +2897,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>25137</t>
+          <t>24443</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>51134</t>
+          <t>49845</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>11373</t>
+          <t>13698</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>51174</t>
+          <t>51161</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>38243</t>
+          <t>36249</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>89300</t>
+          <t>88726</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -2982,12 +2982,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,56%</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3010,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>222929</t>
+          <t>223482</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>272623</t>
+          <t>272201</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>41,58%</t>
+          <t>41,68%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>50,85%</t>
+          <t>50,77%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>268988</t>
+          <t>273455</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>534879</t>
+          <t>528668</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3060,12 +3060,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>42,21%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
+          <t>82,97%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>515951</t>
+          <t>516287</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>865893</t>
+          <t>863602</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>43,97%</t>
+          <t>44,0%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>73,8%</t>
+          <t>73,6%</t>
         </is>
       </c>
     </row>
@@ -3123,12 +3123,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>144265</t>
+          <t>145309</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>190609</t>
+          <t>190666</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>35,55%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3158,12 +3158,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>59835</t>
+          <t>66779</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>230708</t>
+          <t>228488</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>35,86%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>185287</t>
+          <t>181482</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>395957</t>
+          <t>398238</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>33,94%</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>61494</t>
+          <t>62510</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>107098</t>
+          <t>108285</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>22962</t>
+          <t>24482</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>93680</t>
+          <t>91260</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>79940</t>
+          <t>79546</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>181163</t>
+          <t>180607</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3321,12 +3321,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>15,39%</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>10678</t>
+          <t>10884</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3481,12 +3481,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>4154</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>15119</t>
+          <t>14378</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3516,12 +3516,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3536,12 +3536,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>7816</t>
+          <t>7336</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>22140</t>
+          <t>21635</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3551,12 +3551,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,39%</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6056</t>
+          <t>5410</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>18813</t>
+          <t>18310</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3594,12 +3594,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3614,12 +3614,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>53133</t>
+          <t>52993</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>246748</t>
+          <t>243012</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>57,88%</t>
+          <t>57,01%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3649,12 +3649,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>61445</t>
+          <t>61685</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>272301</t>
+          <t>283940</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3664,12 +3664,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>44,47%</t>
         </is>
       </c>
     </row>
@@ -3692,12 +3692,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>79526</t>
+          <t>80476</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>110909</t>
+          <t>112921</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>53,21%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>101606</t>
+          <t>108165</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>219267</t>
+          <t>218633</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>51,44%</t>
+          <t>51,29%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>198350</t>
+          <t>181572</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>319243</t>
+          <t>316960</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>49,64%</t>
         </is>
       </c>
     </row>
@@ -3805,12 +3805,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>62441</t>
+          <t>62127</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>96008</t>
+          <t>96289</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>45,24%</t>
+          <t>45,37%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>56178</t>
+          <t>53129</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>120095</t>
+          <t>119013</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>122450</t>
+          <t>118608</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>203715</t>
+          <t>201082</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>31,9%</t>
+          <t>31,49%</t>
         </is>
       </c>
     </row>
@@ -3918,12 +3918,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>14010</t>
+          <t>14265</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>33648</t>
+          <t>35230</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3933,12 +3933,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>14404</t>
+          <t>14058</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>39796</t>
+          <t>39814</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
@@ -3988,12 +3988,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>33838</t>
+          <t>32704</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>66139</t>
+          <t>66593</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -4003,12 +4003,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>10,43%</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>6855</t>
+          <t>7020</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>4937</t>
+          <t>4953</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>18350</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>6278</t>
+          <t>6939</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>21067</t>
+          <t>21222</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>1830</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>13235</t>
+          <t>13987</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4296,12 +4296,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>36638</t>
+          <t>36639</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>61996</t>
+          <t>61697</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>40724</t>
+          <t>40555</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>67857</t>
+          <t>67044</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4346,12 +4346,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>10,19%</t>
         </is>
       </c>
     </row>
@@ -4374,12 +4374,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>25244</t>
+          <t>24713</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>60651</t>
+          <t>61281</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>237774</t>
+          <t>237589</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>280901</t>
+          <t>280201</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -4424,12 +4424,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>48,37%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>57,19%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>274312</t>
+          <t>268431</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>335002</t>
+          <t>330937</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -4459,12 +4459,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>40,8%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>50,92%</t>
+          <t>50,3%</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4487,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>35601</t>
+          <t>35662</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>76131</t>
+          <t>75970</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -4502,12 +4502,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>45,56%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4522,12 +4522,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>108092</t>
+          <t>110658</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>145812</t>
+          <t>147129</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>29,95%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>152489</t>
+          <t>154004</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>210970</t>
+          <t>210054</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -4572,12 +4572,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>31,93%</t>
         </is>
       </c>
     </row>
@@ -4600,12 +4600,12 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>44327</t>
+          <t>43756</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>86507</t>
+          <t>89266</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4615,12 +4615,12 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>51,87%</t>
+          <t>53,53%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>33749</t>
+          <t>33343</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>68657</t>
+          <t>65599</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4650,12 +4650,12 @@
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -4670,12 +4670,12 @@
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>84745</t>
+          <t>84819</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>145550</t>
+          <t>147556</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4685,12 +4685,12 @@
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>22,43%</t>
         </is>
       </c>
     </row>
@@ -4830,12 +4830,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>10996</t>
+          <t>10681</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>30273</t>
+          <t>29559</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -4845,12 +4845,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4865,12 +4865,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>16385</t>
+          <t>16245</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>37064</t>
+          <t>37554</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -4880,12 +4880,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4900,12 +4900,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>31922</t>
+          <t>32030</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>59100</t>
+          <t>62886</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -4943,12 +4943,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>72844</t>
+          <t>76762</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>138201</t>
+          <t>141097</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -4958,12 +4958,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>170331</t>
+          <t>168268</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>469835</t>
+          <t>468076</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -4993,12 +4993,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5013,12 +5013,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>271122</t>
+          <t>273632</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>613004</t>
+          <t>599431</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -5028,12 +5028,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>13,96%</t>
         </is>
       </c>
     </row>
@@ -5056,12 +5056,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>897248</t>
+          <t>898081</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>1387595</t>
+          <t>1379728</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>43,15%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>66,67%</t>
+          <t>66,29%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>963524</t>
+          <t>971694</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>1427816</t>
+          <t>1430127</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -5106,12 +5106,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>43,57%</t>
+          <t>43,94%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>64,57%</t>
+          <t>64,68%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5126,12 +5126,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>1924802</t>
+          <t>1913817</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>2653723</t>
+          <t>2599264</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -5141,12 +5141,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>44,84%</t>
+          <t>44,59%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>61,82%</t>
+          <t>60,55%</t>
         </is>
       </c>
     </row>
@@ -5169,12 +5169,12 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>412552</t>
+          <t>388696</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>693903</t>
+          <t>692040</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>425811</t>
+          <t>420566</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>690033</t>
+          <t>687444</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5219,12 +5219,12 @@
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -5239,12 +5239,12 @@
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>939533</t>
+          <t>965805</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>1350416</t>
+          <t>1349445</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5254,12 +5254,12 @@
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>31,44%</t>
         </is>
       </c>
     </row>
@@ -5282,12 +5282,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>209365</t>
+          <t>202469</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>363450</t>
+          <t>362328</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -5317,12 +5317,12 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>155764</t>
+          <t>156215</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>261925</t>
+          <t>260587</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -5332,12 +5332,12 @@
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -5352,12 +5352,12 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>424776</t>
+          <t>416993</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>606466</t>
+          <t>600938</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
@@ -5367,12 +5367,12 @@
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>14,0%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SALUD_MEN_PER-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MEN_PER-Clase-trans_orig.xlsx
@@ -733,32 +733,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4562</t>
+          <t>5197</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1468</t>
+          <t>1490</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13117</t>
+          <t>15357</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10365</t>
+          <t>12698</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -803,32 +803,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8415</t>
+          <t>9646</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3890</t>
+          <t>4487</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>17948</t>
+          <t>20510</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,84%</t>
         </is>
       </c>
     </row>
@@ -846,32 +846,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27311</t>
+          <t>27263</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17192</t>
+          <t>17685</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41717</t>
+          <t>41221</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -881,32 +881,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15387</t>
+          <t>17873</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10411</t>
+          <t>12342</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22123</t>
+          <t>25196</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>42698</t>
+          <t>45136</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>31366</t>
+          <t>33493</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>57909</t>
+          <t>60768</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,4%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>161737</t>
+          <t>176943</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>143066</t>
+          <t>157747</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>183166</t>
+          <t>198680</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,11%</t>
+          <t>44,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>39,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>49,95%</t>
+          <t>50,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -994,32 +994,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>116821</t>
+          <t>128092</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>102739</t>
+          <t>112844</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>131024</t>
+          <t>143497</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>43,8%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1029,32 +1029,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>278558</t>
+          <t>305035</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>253798</t>
+          <t>279737</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>300946</t>
+          <t>329298</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>42,19%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>38,69%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>45,22%</t>
+          <t>45,55%</t>
         </is>
       </c>
     </row>
@@ -1072,22 +1072,22 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>119828</t>
+          <t>128411</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>102721</t>
+          <t>110745</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>141692</t>
+          <t>151582</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>38,34%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>114894</t>
+          <t>124553</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>100748</t>
+          <t>109320</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>130580</t>
+          <t>141537</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>33,37%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>43,2%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1142,32 +1142,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>234722</t>
+          <t>252964</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>213791</t>
+          <t>230752</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>261565</t>
+          <t>280781</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>39,3%</t>
+          <t>38,83%</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>53244</t>
+          <t>57573</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39311</t>
+          <t>43772</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>70529</t>
+          <t>77291</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1220,32 +1220,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>47946</t>
+          <t>52660</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>38069</t>
+          <t>41852</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>58976</t>
+          <t>64701</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1255,32 +1255,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>101191</t>
+          <t>110233</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>83573</t>
+          <t>92765</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>123206</t>
+          <t>132816</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>18,37%</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1298,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1333,17 +1333,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4285</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1460,12 +1460,12 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3618</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1485,32 +1485,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>2039</t>
+          <t>2128</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>401</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>6114</t>
+          <t>6386</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,01%</t>
         </is>
       </c>
     </row>
@@ -1528,32 +1528,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14595</t>
+          <t>15197</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>8776</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24020</t>
+          <t>24970</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1563,32 +1563,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24680</t>
+          <t>26107</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17917</t>
+          <t>19476</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35814</t>
+          <t>37358</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1598,32 +1598,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>39275</t>
+          <t>41304</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>29052</t>
+          <t>30630</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>53311</t>
+          <t>54486</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>8,63%</t>
         </is>
       </c>
     </row>
@@ -1641,32 +1641,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>145273</t>
+          <t>156525</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>127003</t>
+          <t>136789</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>162716</t>
+          <t>174784</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>45,46%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>39,72%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>50,21%</t>
+          <t>50,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1676,32 +1676,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>117193</t>
+          <t>128554</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>102645</t>
+          <t>112998</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>131124</t>
+          <t>142910</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>45,06%</t>
+          <t>44,8%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>49,8%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1711,32 +1711,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>262466</t>
+          <t>285079</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>241085</t>
+          <t>262287</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>286448</t>
+          <t>311012</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>44,93%</t>
+          <t>45,16%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>49,04%</t>
+          <t>49,27%</t>
         </is>
       </c>
     </row>
@@ -1754,17 +1754,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>108079</t>
+          <t>114826</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90530</t>
+          <t>95790</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>127971</t>
+          <t>135611</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>27,82%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1789,32 +1789,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>88418</t>
+          <t>99734</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>74945</t>
+          <t>84696</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>102263</t>
+          <t>113757</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>34,76%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1824,32 +1824,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>196497</t>
+          <t>214560</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>174125</t>
+          <t>191038</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>219515</t>
+          <t>238010</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>37,58%</t>
+          <t>37,7%</t>
         </is>
       </c>
     </row>
@@ -1867,32 +1867,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>55066</t>
+          <t>56724</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>39300</t>
+          <t>41354</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>72197</t>
+          <t>73754</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1902,22 +1902,22 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>28785</t>
+          <t>31493</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>20778</t>
+          <t>22927</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>38610</t>
+          <t>42075</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1937,32 +1937,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>83851</t>
+          <t>88217</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>66052</t>
+          <t>70060</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>104231</t>
+          <t>108357</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>17,16%</t>
         </is>
       </c>
     </row>
@@ -1980,17 +1980,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2015,17 +2015,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2050,17 +2050,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6138</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>615</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -2142,12 +2142,12 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>3263</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1536</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
@@ -2177,12 +2177,12 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>5267</t>
+          <t>6030</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -2210,32 +2210,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17505</t>
+          <t>18948</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4539</t>
+          <t>11470</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>42338</t>
+          <t>29096</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2245,32 +2245,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11234</t>
+          <t>12327</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6884</t>
+          <t>7390</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16862</t>
+          <t>18338</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2280,32 +2280,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>28738</t>
+          <t>31276</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>8608</t>
+          <t>22222</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>54987</t>
+          <t>43199</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>11,61%</t>
         </is>
       </c>
     </row>
@@ -2323,32 +2323,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>358954</t>
+          <t>128611</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>224728</t>
+          <t>112161</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>435720</t>
+          <t>145967</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>75,5%</t>
+          <t>49,36%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>43,05%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>91,65%</t>
+          <t>56,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2358,32 +2358,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>47042</t>
+          <t>54668</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>37683</t>
+          <t>43942</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>55082</t>
+          <t>63855</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>48,22%</t>
+          <t>49,04%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>38,62%</t>
+          <t>39,41%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>56,46%</t>
+          <t>57,28%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2393,32 +2393,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>405996</t>
+          <t>183280</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274861</t>
+          <t>163742</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>510755</t>
+          <t>202750</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>70,86%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>47,97%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>54,5%</t>
         </is>
       </c>
     </row>
@@ -2436,32 +2436,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>71966</t>
+          <t>80910</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22051</t>
+          <t>67247</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>157450</t>
+          <t>98808</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2471,32 +2471,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27712</t>
+          <t>31931</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19685</t>
+          <t>22918</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>35554</t>
+          <t>40303</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2506,32 +2506,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>99678</t>
+          <t>112842</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>38870</t>
+          <t>96546</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>180361</t>
+          <t>133099</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>30,33%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>25,95%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>35,78%</t>
         </is>
       </c>
     </row>
@@ -2549,32 +2549,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>26014</t>
+          <t>31044</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7099</t>
+          <t>21218</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>59813</t>
+          <t>43978</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2584,32 +2584,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11026</t>
+          <t>11945</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>6116</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>20088</t>
+          <t>22245</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2619,32 +2619,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>37040</t>
+          <t>42989</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>13128</t>
+          <t>30838</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>70075</t>
+          <t>61537</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>16,54%</t>
         </is>
       </c>
     </row>
@@ -2662,17 +2662,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2697,17 +2697,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2732,17 +2732,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2779,32 +2779,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5546</t>
+          <t>5865</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2377</t>
+          <t>2447</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12206</t>
+          <t>13382</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2814,32 +2814,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1833</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>495</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>6024</t>
+          <t>6147</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2849,32 +2849,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>7379</t>
+          <t>7807</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>14656</t>
+          <t>15417</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,4%</t>
         </is>
       </c>
     </row>
@@ -2892,32 +2892,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>36116</t>
+          <t>38820</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>24443</t>
+          <t>26391</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>49845</t>
+          <t>53680</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2927,32 +2927,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>31468</t>
+          <t>35275</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>13698</t>
+          <t>27240</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>51161</t>
+          <t>46121</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2962,32 +2962,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>67585</t>
+          <t>74095</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>36249</t>
+          <t>58227</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>88726</t>
+          <t>90912</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>8,26%</t>
         </is>
       </c>
     </row>
@@ -3005,32 +3005,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>246243</t>
+          <t>275482</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>223482</t>
+          <t>249628</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>272201</t>
+          <t>302941</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>45,93%</t>
+          <t>45,16%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>40,92%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>50,77%</t>
+          <t>49,66%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3040,32 +3040,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>394590</t>
+          <t>215341</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>273455</t>
+          <t>197018</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>528668</t>
+          <t>234497</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>61,93%</t>
+          <t>43,88%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>82,97%</t>
+          <t>47,78%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3075,32 +3075,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>640833</t>
+          <t>490823</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>516287</t>
+          <t>460541</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>863602</t>
+          <t>528592</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>54,62%</t>
+          <t>44,59%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>44,0%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>73,6%</t>
+          <t>48,02%</t>
         </is>
       </c>
     </row>
@@ -3118,32 +3118,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>167256</t>
+          <t>192465</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>145309</t>
+          <t>168565</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>190666</t>
+          <t>218529</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>27,63%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>35,83%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3153,32 +3153,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>150378</t>
+          <t>167337</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>66779</t>
+          <t>148102</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>228488</t>
+          <t>184311</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>34,1%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>37,56%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3188,32 +3188,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>317634</t>
+          <t>359802</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>181482</t>
+          <t>327478</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>398238</t>
+          <t>390623</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>35,49%</t>
         </is>
       </c>
     </row>
@@ -3231,32 +3231,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>80994</t>
+          <t>97349</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>62510</t>
+          <t>78177</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>108285</t>
+          <t>125542</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3266,32 +3266,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>58935</t>
+          <t>70855</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>24482</t>
+          <t>56500</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>91260</t>
+          <t>88481</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3301,32 +3301,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>139929</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>79546</t>
+          <t>143387</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>180607</t>
+          <t>197598</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>17,95%</t>
         </is>
       </c>
     </row>
@@ -3344,17 +3344,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3379,17 +3379,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3414,17 +3414,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3461,32 +3461,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4685</t>
+          <t>4767</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>1675</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>10884</t>
+          <t>10750</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3496,32 +3496,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>8674</t>
+          <t>9638</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>14378</t>
+          <t>15824</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3531,32 +3531,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>13358</t>
+          <t>14405</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>7336</t>
+          <t>8749</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>21635</t>
+          <t>22703</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,42%</t>
         </is>
       </c>
     </row>
@@ -3574,32 +3574,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>10889</t>
+          <t>12611</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>6096</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>18310</t>
+          <t>20519</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3609,32 +3609,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>116833</t>
+          <t>52899</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>52993</t>
+          <t>42338</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>243012</t>
+          <t>65044</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>57,01%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3644,32 +3644,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>127721</t>
+          <t>65510</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>61685</t>
+          <t>53517</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>283940</t>
+          <t>79969</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>44,47%</t>
+          <t>12,06%</t>
         </is>
       </c>
     </row>
@@ -3687,32 +3687,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>96617</t>
+          <t>112423</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>80476</t>
+          <t>95384</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>112921</t>
+          <t>129853</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>45,53%</t>
+          <t>44,2%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>37,92%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>53,21%</t>
+          <t>51,06%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3722,32 +3722,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>177978</t>
+          <t>204335</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>108165</t>
+          <t>186215</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>218633</t>
+          <t>222807</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>41,75%</t>
+          <t>49,99%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>45,56%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>51,29%</t>
+          <t>54,51%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3757,32 +3757,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>274596</t>
+          <t>316759</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>181572</t>
+          <t>292271</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>316960</t>
+          <t>341275</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>43,01%</t>
+          <t>47,77%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>49,64%</t>
+          <t>51,47%</t>
         </is>
       </c>
     </row>
@@ -3800,32 +3800,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>77276</t>
+          <t>97150</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>62127</t>
+          <t>81029</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>96289</t>
+          <t>115020</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>38,2%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>45,37%</t>
+          <t>45,22%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3835,32 +3835,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>95348</t>
+          <t>109884</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>53129</t>
+          <t>95534</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>119013</t>
+          <t>126397</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3870,32 +3870,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>172625</t>
+          <t>207035</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>118608</t>
+          <t>184130</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>201082</t>
+          <t>232578</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>35,08%</t>
         </is>
       </c>
     </row>
@@ -3913,32 +3913,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>22752</t>
+          <t>27377</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>14265</t>
+          <t>17391</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>35230</t>
+          <t>41131</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3948,32 +3948,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>27456</t>
+          <t>31985</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>14058</t>
+          <t>22390</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>39814</t>
+          <t>42755</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3983,32 +3983,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>50208</t>
+          <t>59362</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>32704</t>
+          <t>46474</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>66593</t>
+          <t>75236</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>11,35%</t>
         </is>
       </c>
     </row>
@@ -4026,17 +4026,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4061,17 +4061,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4096,17 +4096,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>2099</t>
+          <t>2340</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -4153,12 +4153,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>7020</t>
+          <t>7652</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4178,32 +4178,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>9883</t>
+          <t>10581</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>4953</t>
+          <t>5187</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>18105</t>
+          <t>19189</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>11983</t>
+          <t>12921</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>7520</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>21222</t>
+          <t>23496</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,27%</t>
         </is>
       </c>
     </row>
@@ -4256,32 +4256,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>5591</t>
+          <t>7952</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>1830</t>
+          <t>3173</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>13987</t>
+          <t>17889</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4291,32 +4291,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>46882</t>
+          <t>50816</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>36639</t>
+          <t>40033</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>61697</t>
+          <t>67023</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4326,32 +4326,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>52473</t>
+          <t>58768</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>40555</t>
+          <t>46490</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>67044</t>
+          <t>74522</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>10,38%</t>
         </is>
       </c>
     </row>
@@ -4369,32 +4369,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>40608</t>
+          <t>42960</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>24713</t>
+          <t>27289</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>61281</t>
+          <t>62579</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>36,92%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4404,32 +4404,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>259997</t>
+          <t>284505</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>237589</t>
+          <t>261610</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>280201</t>
+          <t>308190</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>52,93%</t>
+          <t>51,9%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>48,37%</t>
+          <t>47,72%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>57,05%</t>
+          <t>56,22%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4439,32 +4439,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>300605</t>
+          <t>327466</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>268431</t>
+          <t>295700</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>330937</t>
+          <t>358721</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>45,63%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>40,8%</t>
+          <t>41,2%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>50,3%</t>
+          <t>49,98%</t>
         </is>
       </c>
     </row>
@@ -4482,32 +4482,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>53273</t>
+          <t>56119</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>35662</t>
+          <t>38747</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>75970</t>
+          <t>75741</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>45,56%</t>
+          <t>44,69%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4517,32 +4517,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>127019</t>
+          <t>146896</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>110658</t>
+          <t>126840</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>147129</t>
+          <t>167786</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>30,61%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4552,32 +4552,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>180292</t>
+          <t>203015</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>154004</t>
+          <t>175820</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>210054</t>
+          <t>233164</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>32,49%</t>
         </is>
       </c>
     </row>
@@ -4595,32 +4595,32 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>65189</t>
+          <t>60125</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>43756</t>
+          <t>40174</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>89266</t>
+          <t>81438</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>53,53%</t>
+          <t>48,05%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4630,32 +4630,32 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>47406</t>
+          <t>55364</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>33343</t>
+          <t>39722</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>65599</t>
+          <t>76162</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -4665,32 +4665,32 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>112595</t>
+          <t>115489</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>84819</t>
+          <t>88216</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>147556</t>
+          <t>147721</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>20,58%</t>
         </is>
       </c>
     </row>
@@ -4708,17 +4708,17 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -4743,17 +4743,17 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -4778,17 +4778,17 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -4825,32 +4825,32 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>18912</t>
+          <t>20287</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>10681</t>
+          <t>12059</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>29559</t>
+          <t>31151</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4860,32 +4860,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>25797</t>
+          <t>28276</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>16245</t>
+          <t>18979</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>37554</t>
+          <t>41159</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4895,32 +4895,32 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>44710</t>
+          <t>48563</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>32030</t>
+          <t>36121</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>62886</t>
+          <t>64941</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,54%</t>
         </is>
       </c>
     </row>
@@ -4938,32 +4938,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>112007</t>
+          <t>120792</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>76762</t>
+          <t>100034</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>141097</t>
+          <t>146718</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4973,32 +4973,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>246484</t>
+          <t>195296</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>168268</t>
+          <t>174574</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>468076</t>
+          <t>220929</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5008,32 +5008,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>358491</t>
+          <t>316088</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>273632</t>
+          <t>282243</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>599431</t>
+          <t>348761</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>8,29%</t>
         </is>
       </c>
     </row>
@@ -5051,32 +5051,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>1049433</t>
+          <t>892945</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>898081</t>
+          <t>845084</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>1379728</t>
+          <t>944249</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>43,9%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>43,15%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>66,29%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5086,32 +5086,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>1113620</t>
+          <t>1015495</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>971694</t>
+          <t>972536</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>1430127</t>
+          <t>1061711</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>50,36%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>44,74%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>64,68%</t>
+          <t>48,84%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5121,32 +5121,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>2163053</t>
+          <t>1908441</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>1913817</t>
+          <t>1844145</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>2599264</t>
+          <t>1981184</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>50,39%</t>
+          <t>45,35%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>60,55%</t>
+          <t>47,08%</t>
         </is>
       </c>
     </row>
@@ -5164,32 +5164,32 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>597678</t>
+          <t>669881</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>388696</t>
+          <t>622363</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>692040</t>
+          <t>718733</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>35,33%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -5199,32 +5199,32 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>603769</t>
+          <t>680337</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>420566</t>
+          <t>640020</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>687444</t>
+          <t>722918</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>29,44%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -5234,32 +5234,32 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>1201447</t>
+          <t>1350217</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>965805</t>
+          <t>1286359</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>1349445</t>
+          <t>1408873</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>33,48%</t>
         </is>
       </c>
     </row>
@@ -5277,32 +5277,32 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>303259</t>
+          <t>330192</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>202469</t>
+          <t>288368</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>362328</t>
+          <t>372397</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -5312,32 +5312,32 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>221554</t>
+          <t>254302</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>156215</t>
+          <t>226079</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>260587</t>
+          <t>287186</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -5347,32 +5347,32 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>524814</t>
+          <t>584494</t>
         </is>
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>416993</t>
+          <t>536312</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>600938</t>
+          <t>641882</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>15,25%</t>
         </is>
       </c>
     </row>
@@ -5390,17 +5390,17 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -5425,17 +5425,17 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>2211225</t>
+          <t>2173706</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>2211225</t>
+          <t>2173706</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>2211225</t>
+          <t>2173706</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -5460,17 +5460,17 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>4292514</t>
+          <t>4207803</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>4292514</t>
+          <t>4207803</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>4292514</t>
+          <t>4207803</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
